--- a/inputTEMPLATE e.xlsx
+++ b/inputTEMPLATE e.xlsx
@@ -232,7 +232,7 @@
     <t>shadingbyFP</t>
   </si>
   <si>
-    <t>lightenattenuation</t>
+    <t>lightattenuation</t>
   </si>
 </sst>
 </file>
@@ -1065,9 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X97"/>
+      <selection pane="bottomLeft" activeCell="BU2" sqref="BU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="AA2">
-        <f>(J2/100)*(A2*B2)</f>
+        <f t="shared" ref="AA2:AA33" si="4">(J2/100)*(A2*B2)</f>
         <v>20</v>
       </c>
       <c r="AB2">
@@ -1443,7 +1443,7 @@
         <v>400</v>
       </c>
       <c r="AF2">
-        <f>(A2*B2)*I2</f>
+        <f t="shared" ref="AF2:AF33" si="5">(A2*B2)*I2</f>
         <v>400</v>
       </c>
       <c r="AG2">
@@ -1598,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H66" si="4">AE3/Z3</f>
+        <f t="shared" ref="H3:H66" si="6">AE3/Z3</f>
         <v>200</v>
       </c>
       <c r="I3" s="3">
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K35" si="5">AF3/AA3</f>
+        <f t="shared" ref="K3:K35" si="7">AF3/AA3</f>
         <v>200</v>
       </c>
       <c r="L3" s="3">
@@ -1655,11 +1655,11 @@
         <v>1</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z4" si="6">(J3/100)*(A3*B3)</f>
+        <f t="shared" ref="Z3:Z4" si="8">(J3/100)*(A3*B3)</f>
         <v>20</v>
       </c>
       <c r="AA3">
-        <f>(J3/100)*(A3*B3)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB3">
@@ -1672,11 +1672,11 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE66" si="7">(A3*B3)*F3</f>
+        <f t="shared" ref="AE3:AE66" si="9">(A3*B3)*F3</f>
         <v>4000</v>
       </c>
       <c r="AF3">
-        <f>(A3*B3)*I3</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG3">
@@ -1783,7 +1783,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO3">
-        <f t="shared" ref="BO3:BO66" si="8">BJ3/4</f>
+        <f t="shared" ref="BO3:BO66" si="10">BJ3/4</f>
         <v>1.25E-3</v>
       </c>
       <c r="BP3">
@@ -1831,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I4" s="3">
@@ -1841,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L4" s="3">
@@ -1888,11 +1888,11 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AA4">
-        <f>(J4/100)*(A4*B4)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB4">
@@ -1905,11 +1905,11 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF4">
-        <f>(A4*B4)*I4</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG4">
@@ -2012,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="BN4">
-        <f t="shared" ref="BN4:BN67" si="9">BI4/4</f>
+        <f t="shared" ref="BN4:BN67" si="11">BI4/4</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP4">
@@ -2064,7 +2064,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I5" s="3">
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L5" s="3">
@@ -2121,11 +2121,11 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z59" si="10">(G5/100)*(A5*B5)</f>
+        <f t="shared" ref="Z5:Z58" si="12">(G5/100)*(A5*B5)</f>
         <v>20</v>
       </c>
       <c r="AA5">
-        <f>(J5/100)*(A5*B5)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB5">
@@ -2138,11 +2138,11 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF5">
-        <f>(A5*B5)*I5</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG5">
@@ -2245,11 +2245,11 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP5">
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I6" s="3">
@@ -2307,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L6" s="3">
@@ -2354,11 +2354,11 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA6">
-        <f>(J6/100)*(A6*B6)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB6">
@@ -2371,11 +2371,11 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF6">
-        <f>(A6*B6)*I6</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG6">
@@ -2478,11 +2478,11 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP6">
@@ -2530,7 +2530,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I7" s="3">
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L7" s="3">
@@ -2587,11 +2587,11 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA7">
-        <f>(J7/100)*(A7*B7)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB7">
@@ -2604,11 +2604,11 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF7">
-        <f>(A7*B7)*I7</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG7">
@@ -2711,11 +2711,11 @@
         <v>0</v>
       </c>
       <c r="BN7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP7">
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I8" s="3">
@@ -2773,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L8" s="3">
@@ -2820,11 +2820,11 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA8">
-        <f>(J8/100)*(A8*B8)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB8">
@@ -2837,11 +2837,11 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF8">
-        <f>(A8*B8)*I8</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG8">
@@ -2944,11 +2944,11 @@
         <v>0</v>
       </c>
       <c r="BN8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP8">
@@ -2996,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I9" s="3">
@@ -3006,7 +3006,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L9" s="3">
@@ -3053,11 +3053,11 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA9">
-        <f>(J9/100)*(A9*B9)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB9">
@@ -3070,11 +3070,11 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF9">
-        <f>(A9*B9)*I9</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG9">
@@ -3177,11 +3177,11 @@
         <v>0</v>
       </c>
       <c r="BN9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP9">
@@ -3229,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I10" s="3">
@@ -3239,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L10" s="3">
@@ -3287,11 +3287,11 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA10">
-        <f>(J10/100)*(A10*B10)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB10">
@@ -3304,11 +3304,11 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF10">
-        <f>(A10*B10)*I10</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG10">
@@ -3411,11 +3411,11 @@
         <v>0</v>
       </c>
       <c r="BN10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP10">
@@ -3463,7 +3463,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I11" s="3">
@@ -3473,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L11" s="3">
@@ -3490,7 +3490,7 @@
         <v>7.5</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ref="P11" si="11">7.5/4</f>
+        <f t="shared" ref="P11" si="13">7.5/4</f>
         <v>1.875</v>
       </c>
       <c r="Q11" s="2">
@@ -3521,11 +3521,11 @@
         <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA11">
-        <f>(J11/100)*(A11*B11)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB11">
@@ -3538,11 +3538,11 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF11">
-        <f>(A11*B11)*I11</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG11">
@@ -3645,11 +3645,11 @@
         <v>0</v>
       </c>
       <c r="BN11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP11">
@@ -3697,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I12" s="3">
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L12" s="3">
@@ -3754,11 +3754,11 @@
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA12">
-        <f>(J12/100)*(A12*B12)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB12">
@@ -3771,11 +3771,11 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF12">
-        <f>(A12*B12)*I12</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG12">
@@ -3878,11 +3878,11 @@
         <v>0</v>
       </c>
       <c r="BN12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP12">
@@ -3930,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I13" s="3">
@@ -3940,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L13" s="3">
@@ -3987,11 +3987,11 @@
         <v>1</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AA13">
-        <f>(J13/100)*(A13*B13)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AB13">
@@ -4004,11 +4004,11 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF13">
-        <f>(A13*B13)*I13</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG13">
@@ -4111,11 +4111,11 @@
         <v>0</v>
       </c>
       <c r="BN13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP13">
@@ -4145,15 +4145,15 @@
         <v>20</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ref="C14:C55" si="12">A14*B14</f>
+        <f t="shared" ref="C14:C55" si="14">A14*B14</f>
         <v>400</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" ref="D14:D55" si="13">IF(A14=B14,"square","rect")</f>
+        <f t="shared" ref="D14:D55" si="15">IF(A14=B14,"square","rect")</f>
         <v>square</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14:E55" si="14">A14/B14</f>
+        <f t="shared" ref="E14:E55" si="16">A14/B14</f>
         <v>1</v>
       </c>
       <c r="F14" s="4">
@@ -4163,7 +4163,7 @@
         <v>50</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I14" s="3">
@@ -4173,11 +4173,11 @@
         <v>50</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:L55" si="15">O14/P14</f>
+        <f t="shared" ref="L14:L55" si="17">O14/P14</f>
         <v>4</v>
       </c>
       <c r="M14">
@@ -4220,11 +4220,11 @@
         <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA14">
-        <f>(J14/100)*(A14*B14)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB14">
@@ -4237,11 +4237,11 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF14">
-        <f>(A14*B14)*I14</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG14">
@@ -4344,11 +4344,11 @@
         <v>0</v>
       </c>
       <c r="BN14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP14">
@@ -4378,15 +4378,15 @@
         <v>20</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F15" s="4">
@@ -4396,7 +4396,7 @@
         <v>50</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I15" s="3">
@@ -4406,11 +4406,11 @@
         <v>50</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M15">
@@ -4453,11 +4453,11 @@
         <v>1</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA15">
-        <f>(J15/100)*(A15*B15)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB15">
@@ -4470,11 +4470,11 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF15">
-        <f>(A15*B15)*I15</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG15">
@@ -4577,11 +4577,11 @@
         <v>0</v>
       </c>
       <c r="BN15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP15">
@@ -4611,15 +4611,15 @@
         <v>20</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F16" s="4">
@@ -4629,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I16" s="3">
@@ -4639,11 +4639,11 @@
         <v>50</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M16">
@@ -4686,11 +4686,11 @@
         <v>1</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA16">
-        <f>(J16/100)*(A16*B16)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB16">
@@ -4703,11 +4703,11 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF16">
-        <f>(A16*B16)*I16</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="AG16">
@@ -4810,11 +4810,11 @@
         <v>0</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP16">
@@ -4844,15 +4844,15 @@
         <v>20</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F17" s="4">
@@ -4862,7 +4862,7 @@
         <v>50</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I17" s="3">
@@ -4872,11 +4872,11 @@
         <v>50</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M17">
@@ -4919,11 +4919,11 @@
         <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA17">
-        <f>(J17/100)*(A17*B17)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB17">
@@ -4936,11 +4936,11 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF17">
-        <f>(A17*B17)*I17</f>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
       <c r="AG17">
@@ -5043,11 +5043,11 @@
         <v>0</v>
       </c>
       <c r="BN17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP17">
@@ -5077,15 +5077,15 @@
         <v>20</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F18" s="4">
@@ -5095,7 +5095,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I18" s="3">
@@ -5105,11 +5105,11 @@
         <v>50</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M18">
@@ -5152,11 +5152,11 @@
         <v>1</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA18">
-        <f>(J18/100)*(A18*B18)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB18">
@@ -5169,11 +5169,11 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF18">
-        <f>(A18*B18)*I18</f>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="AG18">
@@ -5276,11 +5276,11 @@
         <v>0</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP18">
@@ -5310,15 +5310,15 @@
         <v>20</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F19" s="4">
@@ -5328,7 +5328,7 @@
         <v>50</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I19" s="3">
@@ -5338,11 +5338,11 @@
         <v>50</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M19">
@@ -5385,11 +5385,11 @@
         <v>1</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA19">
-        <f>(J19/100)*(A19*B19)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB19">
@@ -5402,11 +5402,11 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF19">
-        <f>(A19*B19)*I19</f>
+        <f t="shared" si="5"/>
         <v>34000</v>
       </c>
       <c r="AG19">
@@ -5509,11 +5509,11 @@
         <v>0</v>
       </c>
       <c r="BN19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP19">
@@ -5543,15 +5543,15 @@
         <v>20</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F20" s="4">
@@ -5561,85 +5561,85 @@
         <v>50</v>
       </c>
       <c r="H20" s="4">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>50</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>150</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S20" s="2">
+        <v>25</v>
+      </c>
+      <c r="T20" s="2">
+        <v>100</v>
+      </c>
+      <c r="U20" s="2">
+        <v>5</v>
+      </c>
+      <c r="V20" s="2">
+        <v>50</v>
+      </c>
+      <c r="W20" s="2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="AA20">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>50</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="AF20">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>150</v>
-      </c>
-      <c r="N20">
-        <v>10</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S20" s="2">
-        <v>25</v>
-      </c>
-      <c r="T20" s="2">
-        <v>100</v>
-      </c>
-      <c r="U20" s="2">
-        <v>5</v>
-      </c>
-      <c r="V20" s="2">
-        <v>50</v>
-      </c>
-      <c r="W20" s="2">
-        <v>100</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AA20">
-        <f>(J20/100)*(A20*B20)</f>
-        <v>200</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="7"/>
-        <v>40000</v>
-      </c>
-      <c r="AF20">
-        <f>(A20*B20)*I20</f>
         <v>40000</v>
       </c>
       <c r="AG20">
@@ -5742,11 +5742,11 @@
         <v>0</v>
       </c>
       <c r="BN20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP20">
@@ -5776,15 +5776,15 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F21" s="4">
@@ -5794,7 +5794,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I21" s="3">
@@ -5804,11 +5804,11 @@
         <v>50</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M21">
@@ -5851,11 +5851,11 @@
         <v>1</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA21">
-        <f>(J21/100)*(A21*B21)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB21">
@@ -5868,11 +5868,11 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF21">
-        <f>(A21*B21)*I21</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG21">
@@ -5975,11 +5975,11 @@
         <v>0</v>
       </c>
       <c r="BN21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP21">
@@ -6009,15 +6009,15 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F22" s="4">
@@ -6027,7 +6027,7 @@
         <v>50</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I22" s="3">
@@ -6037,11 +6037,11 @@
         <v>50</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M22">
@@ -6084,11 +6084,11 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA22">
-        <f>(J22/100)*(A22*B22)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB22">
@@ -6101,11 +6101,11 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF22">
-        <f>(A22*B22)*I22</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG22">
@@ -6208,11 +6208,11 @@
         <v>0</v>
       </c>
       <c r="BN22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP22">
@@ -6242,15 +6242,15 @@
         <v>20</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F23" s="4">
@@ -6260,7 +6260,7 @@
         <v>50</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I23" s="3">
@@ -6270,11 +6270,11 @@
         <v>50</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M23">
@@ -6317,11 +6317,11 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA23">
-        <f>(J23/100)*(A23*B23)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB23">
@@ -6334,11 +6334,11 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF23">
-        <f>(A23*B23)*I23</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="AG23">
@@ -6441,11 +6441,11 @@
         <v>0</v>
       </c>
       <c r="BN23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP23">
@@ -6475,15 +6475,15 @@
         <v>20</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F24" s="4">
@@ -6493,7 +6493,7 @@
         <v>50</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I24" s="3">
@@ -6503,11 +6503,11 @@
         <v>50</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M24">
@@ -6550,11 +6550,11 @@
         <v>1</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA24">
-        <f>(J24/100)*(A24*B24)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB24">
@@ -6567,11 +6567,11 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF24">
-        <f>(A24*B24)*I24</f>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
       <c r="AG24">
@@ -6674,11 +6674,11 @@
         <v>0</v>
       </c>
       <c r="BN24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP24">
@@ -6708,15 +6708,15 @@
         <v>20</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F25" s="4">
@@ -6726,7 +6726,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I25" s="3">
@@ -6736,11 +6736,11 @@
         <v>50</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M25">
@@ -6783,11 +6783,11 @@
         <v>1</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA25">
-        <f>(J25/100)*(A25*B25)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB25">
@@ -6800,11 +6800,11 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF25">
-        <f>(A25*B25)*I25</f>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="AG25">
@@ -6907,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP25">
@@ -6941,15 +6941,15 @@
         <v>20</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F26" s="4">
@@ -6959,7 +6959,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I26" s="3">
@@ -6969,11 +6969,11 @@
         <v>50</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M26">
@@ -7016,11 +7016,11 @@
         <v>1</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA26">
-        <f>(J26/100)*(A26*B26)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB26">
@@ -7033,11 +7033,11 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF26">
-        <f>(A26*B26)*I26</f>
+        <f t="shared" si="5"/>
         <v>34000</v>
       </c>
       <c r="AG26">
@@ -7140,11 +7140,11 @@
         <v>0</v>
       </c>
       <c r="BN26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP26">
@@ -7174,15 +7174,15 @@
         <v>20</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F27" s="4">
@@ -7192,85 +7192,85 @@
         <v>50</v>
       </c>
       <c r="H27" s="4">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>50</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>150</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S27" s="2">
+        <v>25</v>
+      </c>
+      <c r="T27" s="2">
+        <v>100</v>
+      </c>
+      <c r="U27" s="2">
+        <v>5</v>
+      </c>
+      <c r="V27" s="2">
+        <v>50</v>
+      </c>
+      <c r="W27" s="2">
+        <v>100</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>50</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="AF27">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>150</v>
-      </c>
-      <c r="N27">
-        <v>10</v>
-      </c>
-      <c r="O27" s="2">
-        <v>2</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S27" s="2">
-        <v>25</v>
-      </c>
-      <c r="T27" s="2">
-        <v>100</v>
-      </c>
-      <c r="U27" s="2">
-        <v>5</v>
-      </c>
-      <c r="V27" s="2">
-        <v>50</v>
-      </c>
-      <c r="W27" s="2">
-        <v>100</v>
-      </c>
-      <c r="X27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AA27">
-        <f>(J27/100)*(A27*B27)</f>
-        <v>200</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="7"/>
-        <v>40000</v>
-      </c>
-      <c r="AF27">
-        <f>(A27*B27)*I27</f>
         <v>40000</v>
       </c>
       <c r="AG27">
@@ -7373,11 +7373,11 @@
         <v>0</v>
       </c>
       <c r="BN27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP27">
@@ -7407,15 +7407,15 @@
         <v>20</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F28" s="4">
@@ -7425,7 +7425,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I28" s="3">
@@ -7435,11 +7435,11 @@
         <v>50</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M28">
@@ -7482,11 +7482,11 @@
         <v>1</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA28">
-        <f>(J28/100)*(A28*B28)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB28">
@@ -7499,11 +7499,11 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF28">
-        <f>(A28*B28)*I28</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="AG28">
@@ -7606,11 +7606,11 @@
         <v>0</v>
       </c>
       <c r="BN28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP28">
@@ -7640,15 +7640,15 @@
         <v>20</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F29" s="4">
@@ -7658,7 +7658,7 @@
         <v>50</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I29" s="3">
@@ -7668,11 +7668,11 @@
         <v>50</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M29">
@@ -7715,11 +7715,11 @@
         <v>1</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA29">
-        <f>(J29/100)*(A29*B29)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB29">
@@ -7732,11 +7732,11 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF29">
-        <f>(A29*B29)*I29</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="AG29">
@@ -7839,11 +7839,11 @@
         <v>0</v>
       </c>
       <c r="BN29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP29">
@@ -7873,15 +7873,15 @@
         <v>20</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F30" s="4">
@@ -7891,7 +7891,7 @@
         <v>50</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I30" s="3">
@@ -7901,11 +7901,11 @@
         <v>50</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M30">
@@ -7948,11 +7948,11 @@
         <v>1</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA30">
-        <f>(J30/100)*(A30*B30)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB30">
@@ -7965,11 +7965,11 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF30">
-        <f>(A30*B30)*I30</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="AG30">
@@ -8072,11 +8072,11 @@
         <v>0</v>
       </c>
       <c r="BN30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP30">
@@ -8106,15 +8106,15 @@
         <v>20</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F31" s="4">
@@ -8124,7 +8124,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I31" s="3">
@@ -8134,11 +8134,11 @@
         <v>50</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M31">
@@ -8181,11 +8181,11 @@
         <v>1</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA31">
-        <f>(J31/100)*(A31*B31)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB31">
@@ -8198,11 +8198,11 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF31">
-        <f>(A31*B31)*I31</f>
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
       <c r="AG31">
@@ -8305,11 +8305,11 @@
         <v>0</v>
       </c>
       <c r="BN31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP31">
@@ -8339,15 +8339,15 @@
         <v>20</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F32" s="4">
@@ -8357,7 +8357,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I32" s="3">
@@ -8367,11 +8367,11 @@
         <v>50</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M32">
@@ -8414,11 +8414,11 @@
         <v>1</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA32">
-        <f>(J32/100)*(A32*B32)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB32">
@@ -8431,11 +8431,11 @@
         <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF32">
-        <f>(A32*B32)*I32</f>
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="AG32">
@@ -8538,11 +8538,11 @@
         <v>0</v>
       </c>
       <c r="BN32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP32">
@@ -8572,15 +8572,15 @@
         <v>20</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F33" s="4">
@@ -8590,7 +8590,7 @@
         <v>50</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I33" s="3">
@@ -8600,11 +8600,11 @@
         <v>50</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M33">
@@ -8647,11 +8647,11 @@
         <v>1</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA33">
-        <f>(J33/100)*(A33*B33)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="AB33">
@@ -8664,11 +8664,11 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF33">
-        <f>(A33*B33)*I33</f>
+        <f t="shared" si="5"/>
         <v>34000</v>
       </c>
       <c r="AG33">
@@ -8771,11 +8771,11 @@
         <v>0</v>
       </c>
       <c r="BN33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP33">
@@ -8805,15 +8805,15 @@
         <v>20</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F34" s="4">
@@ -8823,7 +8823,7 @@
         <v>50</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I34" s="3">
@@ -8833,11 +8833,11 @@
         <v>50</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M34">
@@ -8880,11 +8880,11 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA34">
-        <f>(J34/100)*(A34*B34)</f>
+        <f t="shared" ref="AA34:AA65" si="18">(J34/100)*(A34*B34)</f>
         <v>200</v>
       </c>
       <c r="AB34">
@@ -8897,11 +8897,11 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40000</v>
       </c>
       <c r="AF34">
-        <f>(A34*B34)*I34</f>
+        <f t="shared" ref="AF34:AF65" si="19">(A34*B34)*I34</f>
         <v>40000</v>
       </c>
       <c r="AG34">
@@ -9004,11 +9004,11 @@
         <v>0</v>
       </c>
       <c r="BN34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP34">
@@ -9038,15 +9038,15 @@
         <v>20</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F35" s="4">
@@ -9056,7 +9056,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I35" s="3">
@@ -9066,11 +9066,11 @@
         <v>50</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M35">
@@ -9113,11 +9113,11 @@
         <v>1</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA35">
-        <f>(J35/100)*(A35*B35)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB35">
@@ -9130,11 +9130,11 @@
         <v>0</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF35">
-        <f>(A35*B35)*I35</f>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="AG35">
@@ -9237,11 +9237,11 @@
         <v>0</v>
       </c>
       <c r="BN35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP35">
@@ -9271,15 +9271,15 @@
         <v>20</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F36" s="4">
@@ -9289,7 +9289,7 @@
         <v>50</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I36" s="3">
@@ -9299,11 +9299,11 @@
         <v>50</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36:K55" si="16">AF36/AA36</f>
+        <f t="shared" ref="K36:K55" si="20">AF36/AA36</f>
         <v>20</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M36">
@@ -9346,11 +9346,11 @@
         <v>1</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA36">
-        <f>(J36/100)*(A36*B36)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB36">
@@ -9363,11 +9363,11 @@
         <v>0</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF36">
-        <f>(A36*B36)*I36</f>
+        <f t="shared" si="19"/>
         <v>4000</v>
       </c>
       <c r="AG36">
@@ -9470,11 +9470,11 @@
         <v>0</v>
       </c>
       <c r="BN36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP36">
@@ -9504,15 +9504,15 @@
         <v>20</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F37" s="4">
@@ -9522,7 +9522,7 @@
         <v>50</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I37" s="3">
@@ -9532,11 +9532,11 @@
         <v>50</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M37">
@@ -9579,11 +9579,11 @@
         <v>1</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA37">
-        <f>(J37/100)*(A37*B37)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB37">
@@ -9596,11 +9596,11 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF37">
-        <f>(A37*B37)*I37</f>
+        <f t="shared" si="19"/>
         <v>10000</v>
       </c>
       <c r="AG37">
@@ -9703,11 +9703,11 @@
         <v>0</v>
       </c>
       <c r="BN37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP37">
@@ -9737,15 +9737,15 @@
         <v>20</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F38" s="4">
@@ -9755,7 +9755,7 @@
         <v>50</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I38" s="3">
@@ -9765,11 +9765,11 @@
         <v>50</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M38">
@@ -9812,11 +9812,11 @@
         <v>1</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA38">
-        <f>(J38/100)*(A38*B38)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB38">
@@ -9829,11 +9829,11 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF38">
-        <f>(A38*B38)*I38</f>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="AG38">
@@ -9936,11 +9936,11 @@
         <v>0</v>
       </c>
       <c r="BN38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP38">
@@ -9970,15 +9970,15 @@
         <v>20</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F39" s="4">
@@ -9988,7 +9988,7 @@
         <v>50</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I39" s="3">
@@ -9998,11 +9998,11 @@
         <v>50</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M39">
@@ -10045,11 +10045,11 @@
         <v>1</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA39">
-        <f>(J39/100)*(A39*B39)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB39">
@@ -10062,11 +10062,11 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF39">
-        <f>(A39*B39)*I39</f>
+        <f t="shared" si="19"/>
         <v>30000</v>
       </c>
       <c r="AG39">
@@ -10169,11 +10169,11 @@
         <v>0</v>
       </c>
       <c r="BN39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP39">
@@ -10203,15 +10203,15 @@
         <v>20</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F40" s="4">
@@ -10221,7 +10221,7 @@
         <v>50</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I40" s="3">
@@ -10231,11 +10231,11 @@
         <v>50</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>170</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M40">
@@ -10278,11 +10278,11 @@
         <v>1</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA40">
-        <f>(J40/100)*(A40*B40)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB40">
@@ -10295,11 +10295,11 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF40">
-        <f>(A40*B40)*I40</f>
+        <f t="shared" si="19"/>
         <v>34000</v>
       </c>
       <c r="AG40">
@@ -10402,11 +10402,11 @@
         <v>0</v>
       </c>
       <c r="BN40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP40">
@@ -10436,15 +10436,15 @@
         <v>20</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F41" s="4">
@@ -10454,7 +10454,7 @@
         <v>50</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I41" s="3">
@@ -10464,11 +10464,11 @@
         <v>50</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M41">
@@ -10511,11 +10511,11 @@
         <v>1</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA41">
-        <f>(J41/100)*(A41*B41)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB41">
@@ -10528,11 +10528,11 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40000</v>
       </c>
       <c r="AF41">
-        <f>(A41*B41)*I41</f>
+        <f t="shared" si="19"/>
         <v>40000</v>
       </c>
       <c r="AG41">
@@ -10635,11 +10635,11 @@
         <v>0</v>
       </c>
       <c r="BN41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP41">
@@ -10669,15 +10669,15 @@
         <v>20</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F42" s="4">
@@ -10687,7 +10687,7 @@
         <v>50</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I42" s="3">
@@ -10697,11 +10697,11 @@
         <v>50</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M42">
@@ -10745,11 +10745,11 @@
         <v>1</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA42">
-        <f>(J42/100)*(A42*B42)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB42">
@@ -10762,11 +10762,11 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF42">
-        <f>(A42*B42)*I42</f>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="AG42">
@@ -10869,11 +10869,11 @@
         <v>0</v>
       </c>
       <c r="BN42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP42">
@@ -10903,15 +10903,15 @@
         <v>20</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F43" s="4">
@@ -10921,7 +10921,7 @@
         <v>50</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I43" s="3">
@@ -10931,11 +10931,11 @@
         <v>50</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M43">
@@ -10948,7 +10948,7 @@
         <v>7.5</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" ref="P43:P48" si="17">7.5/4</f>
+        <f t="shared" ref="P43:P48" si="21">7.5/4</f>
         <v>1.875</v>
       </c>
       <c r="Q43" s="2">
@@ -10979,11 +10979,11 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA43">
-        <f>(J43/100)*(A43*B43)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB43">
@@ -10996,11 +10996,11 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF43">
-        <f>(A43*B43)*I43</f>
+        <f t="shared" si="19"/>
         <v>4000</v>
       </c>
       <c r="AG43">
@@ -11103,11 +11103,11 @@
         <v>0</v>
       </c>
       <c r="BN43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP43">
@@ -11137,15 +11137,15 @@
         <v>20</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F44" s="4">
@@ -11155,7 +11155,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I44" s="3">
@@ -11165,11 +11165,11 @@
         <v>50</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M44">
@@ -11182,7 +11182,7 @@
         <v>7.5</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.875</v>
       </c>
       <c r="Q44" s="2">
@@ -11213,11 +11213,11 @@
         <v>1</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA44">
-        <f>(J44/100)*(A44*B44)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB44">
@@ -11230,11 +11230,11 @@
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF44">
-        <f>(A44*B44)*I44</f>
+        <f t="shared" si="19"/>
         <v>10000</v>
       </c>
       <c r="AG44">
@@ -11337,11 +11337,11 @@
         <v>0</v>
       </c>
       <c r="BN44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP44">
@@ -11371,15 +11371,15 @@
         <v>20</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F45" s="4">
@@ -11389,7 +11389,7 @@
         <v>50</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I45" s="3">
@@ -11399,11 +11399,11 @@
         <v>50</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M45">
@@ -11416,7 +11416,7 @@
         <v>7.5</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.875</v>
       </c>
       <c r="Q45" s="2">
@@ -11447,11 +11447,11 @@
         <v>1</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA45">
-        <f>(J45/100)*(A45*B45)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB45">
@@ -11464,11 +11464,11 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF45">
-        <f>(A45*B45)*I45</f>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="AG45">
@@ -11571,11 +11571,11 @@
         <v>0</v>
       </c>
       <c r="BN45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP45">
@@ -11605,15 +11605,15 @@
         <v>20</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F46" s="4">
@@ -11623,7 +11623,7 @@
         <v>50</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I46" s="3">
@@ -11633,11 +11633,11 @@
         <v>50</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M46">
@@ -11650,7 +11650,7 @@
         <v>7.5</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.875</v>
       </c>
       <c r="Q46" s="2">
@@ -11681,11 +11681,11 @@
         <v>1</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA46">
-        <f>(J46/100)*(A46*B46)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB46">
@@ -11698,11 +11698,11 @@
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF46">
-        <f>(A46*B46)*I46</f>
+        <f t="shared" si="19"/>
         <v>30000</v>
       </c>
       <c r="AG46">
@@ -11805,11 +11805,11 @@
         <v>0</v>
       </c>
       <c r="BN46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP46">
@@ -11839,15 +11839,15 @@
         <v>20</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F47" s="4">
@@ -11857,7 +11857,7 @@
         <v>50</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I47" s="3">
@@ -11867,11 +11867,11 @@
         <v>50</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>170</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M47">
@@ -11884,7 +11884,7 @@
         <v>7.5</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.875</v>
       </c>
       <c r="Q47" s="2">
@@ -11915,11 +11915,11 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA47">
-        <f>(J47/100)*(A47*B47)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB47">
@@ -11932,11 +11932,11 @@
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF47">
-        <f>(A47*B47)*I47</f>
+        <f t="shared" si="19"/>
         <v>34000</v>
       </c>
       <c r="AG47">
@@ -12039,11 +12039,11 @@
         <v>0</v>
       </c>
       <c r="BN47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP47">
@@ -12073,15 +12073,15 @@
         <v>20</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F48" s="4">
@@ -12091,7 +12091,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I48" s="3">
@@ -12101,11 +12101,11 @@
         <v>50</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M48">
@@ -12118,7 +12118,7 @@
         <v>7.5</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.875</v>
       </c>
       <c r="Q48" s="2">
@@ -12149,11 +12149,11 @@
         <v>1</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA48">
-        <f>(J48/100)*(A48*B48)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB48">
@@ -12166,11 +12166,11 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40000</v>
       </c>
       <c r="AF48">
-        <f>(A48*B48)*I48</f>
+        <f t="shared" si="19"/>
         <v>40000</v>
       </c>
       <c r="AG48">
@@ -12273,11 +12273,11 @@
         <v>0</v>
       </c>
       <c r="BN48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP48">
@@ -12307,15 +12307,15 @@
         <v>20</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F49" s="4">
@@ -12325,7 +12325,7 @@
         <v>50</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I49" s="3">
@@ -12335,11 +12335,11 @@
         <v>50</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M49">
@@ -12382,11 +12382,11 @@
         <v>1</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA49">
-        <f>(J49/100)*(A49*B49)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB49">
@@ -12399,11 +12399,11 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF49">
-        <f>(A49*B49)*I49</f>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="AG49">
@@ -12506,11 +12506,11 @@
         <v>0</v>
       </c>
       <c r="BN49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP49">
@@ -12540,15 +12540,15 @@
         <v>20</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F50" s="4">
@@ -12558,7 +12558,7 @@
         <v>50</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I50" s="3">
@@ -12568,11 +12568,11 @@
         <v>50</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M50">
@@ -12615,11 +12615,11 @@
         <v>1</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA50">
-        <f>(J50/100)*(A50*B50)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB50">
@@ -12632,11 +12632,11 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4000</v>
       </c>
       <c r="AF50">
-        <f>(A50*B50)*I50</f>
+        <f t="shared" si="19"/>
         <v>4000</v>
       </c>
       <c r="AG50">
@@ -12739,11 +12739,11 @@
         <v>0</v>
       </c>
       <c r="BN50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP50">
@@ -12773,15 +12773,15 @@
         <v>20</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F51" s="4">
@@ -12791,7 +12791,7 @@
         <v>50</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I51" s="3">
@@ -12801,11 +12801,11 @@
         <v>50</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M51">
@@ -12848,11 +12848,11 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA51">
-        <f>(J51/100)*(A51*B51)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB51">
@@ -12865,11 +12865,11 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10000</v>
       </c>
       <c r="AF51">
-        <f>(A51*B51)*I51</f>
+        <f t="shared" si="19"/>
         <v>10000</v>
       </c>
       <c r="AG51">
@@ -12972,11 +12972,11 @@
         <v>0</v>
       </c>
       <c r="BN51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP51">
@@ -13006,15 +13006,15 @@
         <v>20</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F52" s="4">
@@ -13024,7 +13024,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="I52" s="3">
@@ -13034,11 +13034,11 @@
         <v>50</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M52">
@@ -13081,11 +13081,11 @@
         <v>1</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA52">
-        <f>(J52/100)*(A52*B52)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB52">
@@ -13098,11 +13098,11 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF52">
-        <f>(A52*B52)*I52</f>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="AG52">
@@ -13205,11 +13205,11 @@
         <v>0</v>
       </c>
       <c r="BN52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP52">
@@ -13239,15 +13239,15 @@
         <v>20</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F53" s="4">
@@ -13257,7 +13257,7 @@
         <v>50</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="I53" s="3">
@@ -13267,11 +13267,11 @@
         <v>50</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M53">
@@ -13314,11 +13314,11 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA53">
-        <f>(J53/100)*(A53*B53)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB53">
@@ -13331,11 +13331,11 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
       <c r="AF53">
-        <f>(A53*B53)*I53</f>
+        <f t="shared" si="19"/>
         <v>30000</v>
       </c>
       <c r="AG53">
@@ -13438,11 +13438,11 @@
         <v>0</v>
       </c>
       <c r="BN53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP53">
@@ -13472,15 +13472,15 @@
         <v>20</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F54" s="4">
@@ -13490,7 +13490,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I54" s="3">
@@ -13500,11 +13500,11 @@
         <v>50</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>170</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M54">
@@ -13547,11 +13547,11 @@
         <v>1</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA54">
-        <f>(J54/100)*(A54*B54)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB54">
@@ -13564,11 +13564,11 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34000</v>
       </c>
       <c r="AF54">
-        <f>(A54*B54)*I54</f>
+        <f t="shared" si="19"/>
         <v>34000</v>
       </c>
       <c r="AG54">
@@ -13671,11 +13671,11 @@
         <v>0</v>
       </c>
       <c r="BN54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP54">
@@ -13705,15 +13705,15 @@
         <v>20</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>400</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>square</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F55" s="4">
@@ -13723,7 +13723,7 @@
         <v>50</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="I55" s="3">
@@ -13733,11 +13733,11 @@
         <v>50</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>200</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M55">
@@ -13780,11 +13780,11 @@
         <v>1</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="AA55">
-        <f>(J55/100)*(A55*B55)</f>
+        <f t="shared" si="18"/>
         <v>200</v>
       </c>
       <c r="AB55">
@@ -13797,11 +13797,11 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40000</v>
       </c>
       <c r="AF55">
-        <f>(A55*B55)*I55</f>
+        <f t="shared" si="19"/>
         <v>40000</v>
       </c>
       <c r="AG55">
@@ -13904,11 +13904,11 @@
         <v>0</v>
       </c>
       <c r="BN55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP55">
@@ -13938,15 +13938,15 @@
         <v>20</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:C97" si="18">A56*B56</f>
+        <f t="shared" ref="C56:C97" si="22">A56*B56</f>
         <v>400</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" ref="D56:D97" si="19">IF(A56=B56,"square","rect")</f>
+        <f t="shared" ref="D56:D97" si="23">IF(A56=B56,"square","rect")</f>
         <v>square</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ref="E56:E97" si="20">A56/B56</f>
+        <f t="shared" ref="E56:E97" si="24">A56/B56</f>
         <v>1</v>
       </c>
       <c r="F56" s="4">
@@ -13956,7 +13956,7 @@
         <v>100</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I56" s="3">
@@ -13966,11 +13966,11 @@
         <v>100</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" ref="K56:K97" si="21">AF56/AA56</f>
+        <f t="shared" ref="K56:K97" si="25">AF56/AA56</f>
         <v>1</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" ref="L56:L97" si="22">O56/P56</f>
+        <f t="shared" ref="L56:L97" si="26">O56/P56</f>
         <v>4</v>
       </c>
       <c r="M56">
@@ -14013,11 +14013,11 @@
         <v>1</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="AA56">
-        <f>(J56/100)*(A56*B56)</f>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="AB56">
@@ -14030,11 +14030,11 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="AF56">
-        <f>(A56*B56)*I56</f>
+        <f t="shared" si="19"/>
         <v>400</v>
       </c>
       <c r="AG56">
@@ -14137,11 +14137,11 @@
         <v>0</v>
       </c>
       <c r="BN56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP56">
@@ -14171,103 +14171,103 @@
         <v>20</v>
       </c>
       <c r="C57" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>10</v>
+      </c>
+      <c r="G57" s="4">
+        <v>100</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>150</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S57" s="2">
+        <v>25</v>
+      </c>
+      <c r="T57" s="2">
+        <v>100</v>
+      </c>
+      <c r="U57" s="2">
+        <v>5</v>
+      </c>
+      <c r="V57" s="2">
+        <v>50</v>
+      </c>
+      <c r="W57" s="2">
+        <v>100</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="AA57">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D57" s="3" t="str">
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="AF57">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F57" s="4">
-        <v>10</v>
-      </c>
-      <c r="G57" s="4">
-        <v>100</v>
-      </c>
-      <c r="H57" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I57" s="3">
-        <v>10</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="L57" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>150</v>
-      </c>
-      <c r="N57">
-        <v>10</v>
-      </c>
-      <c r="O57" s="2">
-        <v>1</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S57" s="2">
-        <v>25</v>
-      </c>
-      <c r="T57" s="2">
-        <v>100</v>
-      </c>
-      <c r="U57" s="2">
-        <v>5</v>
-      </c>
-      <c r="V57" s="2">
-        <v>50</v>
-      </c>
-      <c r="W57" s="2">
-        <v>100</v>
-      </c>
-      <c r="X57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="AA57">
-        <f>(J57/100)*(A57*B57)</f>
-        <v>400</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="AF57">
-        <f>(A57*B57)*I57</f>
         <v>4000</v>
       </c>
       <c r="AG57">
@@ -14370,11 +14370,11 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP57">
@@ -14404,103 +14404,103 @@
         <v>20</v>
       </c>
       <c r="C58" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>25</v>
+      </c>
+      <c r="G58" s="4">
+        <v>100</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="I58" s="3">
+        <v>25</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>150</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S58" s="2">
+        <v>25</v>
+      </c>
+      <c r="T58" s="2">
+        <v>100</v>
+      </c>
+      <c r="U58" s="2">
+        <v>5</v>
+      </c>
+      <c r="V58" s="2">
+        <v>50</v>
+      </c>
+      <c r="W58" s="2">
+        <v>100</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="AA58">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D58" s="3" t="str">
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="AF58">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>25</v>
-      </c>
-      <c r="G58" s="4">
-        <v>100</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="I58" s="3">
-        <v>25</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M58">
-        <v>150</v>
-      </c>
-      <c r="N58">
-        <v>10</v>
-      </c>
-      <c r="O58" s="2">
-        <v>1</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S58" s="2">
-        <v>25</v>
-      </c>
-      <c r="T58" s="2">
-        <v>100</v>
-      </c>
-      <c r="U58" s="2">
-        <v>5</v>
-      </c>
-      <c r="V58" s="2">
-        <v>50</v>
-      </c>
-      <c r="W58" s="2">
-        <v>100</v>
-      </c>
-      <c r="X58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="AA58">
-        <f>(J58/100)*(A58*B58)</f>
-        <v>400</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-      <c r="AF58">
-        <f>(A58*B58)*I58</f>
         <v>10000</v>
       </c>
       <c r="AG58">
@@ -14603,11 +14603,11 @@
         <v>0</v>
       </c>
       <c r="BN58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP58">
@@ -14637,103 +14637,103 @@
         <v>20</v>
       </c>
       <c r="C59" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>50</v>
+      </c>
+      <c r="G59" s="4">
+        <v>100</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="I59" s="3">
+        <v>50</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>150</v>
+      </c>
+      <c r="N59">
+        <v>10</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S59" s="2">
+        <v>25</v>
+      </c>
+      <c r="T59" s="2">
+        <v>100</v>
+      </c>
+      <c r="U59" s="2">
+        <v>5</v>
+      </c>
+      <c r="V59" s="2">
+        <v>50</v>
+      </c>
+      <c r="W59" s="2">
+        <v>100</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" ref="Z59:Z97" si="27">(G59/100)*(A59*B59)</f>
+        <v>400</v>
+      </c>
+      <c r="AA59">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D59" s="3" t="str">
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="9"/>
+        <v>20000</v>
+      </c>
+      <c r="AF59">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F59" s="4">
-        <v>50</v>
-      </c>
-      <c r="G59" s="4">
-        <v>100</v>
-      </c>
-      <c r="H59" s="4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="I59" s="3">
-        <v>50</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
-      <c r="L59" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M59">
-        <v>150</v>
-      </c>
-      <c r="N59">
-        <v>10</v>
-      </c>
-      <c r="O59" s="2">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S59" s="2">
-        <v>25</v>
-      </c>
-      <c r="T59" s="2">
-        <v>100</v>
-      </c>
-      <c r="U59" s="2">
-        <v>5</v>
-      </c>
-      <c r="V59" s="2">
-        <v>50</v>
-      </c>
-      <c r="W59" s="2">
-        <v>100</v>
-      </c>
-      <c r="X59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" ref="Z59:Z97" si="23">(G59/100)*(A59*B59)</f>
-        <v>400</v>
-      </c>
-      <c r="AA59">
-        <f>(J59/100)*(A59*B59)</f>
-        <v>400</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="7"/>
-        <v>20000</v>
-      </c>
-      <c r="AF59">
-        <f>(A59*B59)*I59</f>
         <v>20000</v>
       </c>
       <c r="AG59">
@@ -14836,11 +14836,11 @@
         <v>0</v>
       </c>
       <c r="BN59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP59">
@@ -14870,103 +14870,103 @@
         <v>20</v>
       </c>
       <c r="C60" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>75</v>
+      </c>
+      <c r="G60" s="4">
+        <v>100</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I60" s="3">
+        <v>75</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>150</v>
+      </c>
+      <c r="N60">
+        <v>10</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S60" s="2">
+        <v>25</v>
+      </c>
+      <c r="T60" s="2">
+        <v>100</v>
+      </c>
+      <c r="U60" s="2">
+        <v>5</v>
+      </c>
+      <c r="V60" s="2">
+        <v>50</v>
+      </c>
+      <c r="W60" s="2">
+        <v>100</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA60">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="9"/>
+        <v>30000</v>
+      </c>
+      <c r="AF60">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F60" s="4">
-        <v>75</v>
-      </c>
-      <c r="G60" s="4">
-        <v>100</v>
-      </c>
-      <c r="H60" s="4">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="I60" s="3">
-        <v>75</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="21"/>
-        <v>75</v>
-      </c>
-      <c r="L60" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M60">
-        <v>150</v>
-      </c>
-      <c r="N60">
-        <v>10</v>
-      </c>
-      <c r="O60" s="2">
-        <v>1</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R60" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S60" s="2">
-        <v>25</v>
-      </c>
-      <c r="T60" s="2">
-        <v>100</v>
-      </c>
-      <c r="U60" s="2">
-        <v>5</v>
-      </c>
-      <c r="V60" s="2">
-        <v>50</v>
-      </c>
-      <c r="W60" s="2">
-        <v>100</v>
-      </c>
-      <c r="X60" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA60">
-        <f>(J60/100)*(A60*B60)</f>
-        <v>400</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="7"/>
-        <v>30000</v>
-      </c>
-      <c r="AF60">
-        <f>(A60*B60)*I60</f>
         <v>30000</v>
       </c>
       <c r="AG60">
@@ -15069,11 +15069,11 @@
         <v>0</v>
       </c>
       <c r="BN60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP60">
@@ -15103,103 +15103,103 @@
         <v>20</v>
       </c>
       <c r="C61" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>85</v>
+      </c>
+      <c r="G61" s="4">
+        <v>100</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="I61" s="3">
+        <v>85</v>
+      </c>
+      <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="25"/>
+        <v>85</v>
+      </c>
+      <c r="L61" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>150</v>
+      </c>
+      <c r="N61">
+        <v>10</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S61" s="2">
+        <v>25</v>
+      </c>
+      <c r="T61" s="2">
+        <v>100</v>
+      </c>
+      <c r="U61" s="2">
+        <v>5</v>
+      </c>
+      <c r="V61" s="2">
+        <v>50</v>
+      </c>
+      <c r="W61" s="2">
+        <v>100</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA61">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="9"/>
+        <v>34000</v>
+      </c>
+      <c r="AF61">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>85</v>
-      </c>
-      <c r="G61" s="4">
-        <v>100</v>
-      </c>
-      <c r="H61" s="4">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="I61" s="3">
-        <v>85</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <f t="shared" si="21"/>
-        <v>85</v>
-      </c>
-      <c r="L61" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M61">
-        <v>150</v>
-      </c>
-      <c r="N61">
-        <v>10</v>
-      </c>
-      <c r="O61" s="2">
-        <v>1</v>
-      </c>
-      <c r="P61" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S61" s="2">
-        <v>25</v>
-      </c>
-      <c r="T61" s="2">
-        <v>100</v>
-      </c>
-      <c r="U61" s="2">
-        <v>5</v>
-      </c>
-      <c r="V61" s="2">
-        <v>50</v>
-      </c>
-      <c r="W61" s="2">
-        <v>100</v>
-      </c>
-      <c r="X61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA61">
-        <f>(J61/100)*(A61*B61)</f>
-        <v>400</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <f t="shared" si="7"/>
-        <v>34000</v>
-      </c>
-      <c r="AF61">
-        <f>(A61*B61)*I61</f>
         <v>34000</v>
       </c>
       <c r="AG61">
@@ -15302,11 +15302,11 @@
         <v>0</v>
       </c>
       <c r="BN61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP61">
@@ -15336,103 +15336,103 @@
         <v>20</v>
       </c>
       <c r="C62" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>100</v>
+      </c>
+      <c r="G62" s="4">
+        <v>100</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>150</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S62" s="2">
+        <v>25</v>
+      </c>
+      <c r="T62" s="2">
+        <v>100</v>
+      </c>
+      <c r="U62" s="2">
+        <v>5</v>
+      </c>
+      <c r="V62" s="2">
+        <v>50</v>
+      </c>
+      <c r="W62" s="2">
+        <v>100</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA62">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D62" s="3" t="str">
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="AF62">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>100</v>
-      </c>
-      <c r="G62" s="4">
-        <v>100</v>
-      </c>
-      <c r="H62" s="4">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="L62" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M62">
-        <v>150</v>
-      </c>
-      <c r="N62">
-        <v>10</v>
-      </c>
-      <c r="O62" s="2">
-        <v>1</v>
-      </c>
-      <c r="P62" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S62" s="2">
-        <v>25</v>
-      </c>
-      <c r="T62" s="2">
-        <v>100</v>
-      </c>
-      <c r="U62" s="2">
-        <v>5</v>
-      </c>
-      <c r="V62" s="2">
-        <v>50</v>
-      </c>
-      <c r="W62" s="2">
-        <v>100</v>
-      </c>
-      <c r="X62" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA62">
-        <f>(J62/100)*(A62*B62)</f>
-        <v>400</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="7"/>
-        <v>40000</v>
-      </c>
-      <c r="AF62">
-        <f>(A62*B62)*I62</f>
         <v>40000</v>
       </c>
       <c r="AG62">
@@ -15535,11 +15535,11 @@
         <v>0</v>
       </c>
       <c r="BN62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP62">
@@ -15569,103 +15569,103 @@
         <v>20</v>
       </c>
       <c r="C63" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>100</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>100</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>150</v>
+      </c>
+      <c r="N63">
+        <v>10</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S63" s="2">
+        <v>25</v>
+      </c>
+      <c r="T63" s="2">
+        <v>100</v>
+      </c>
+      <c r="U63" s="2">
+        <v>5</v>
+      </c>
+      <c r="V63" s="2">
+        <v>50</v>
+      </c>
+      <c r="W63" s="2">
+        <v>100</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA63">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="AF63">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>100</v>
-      </c>
-      <c r="H63" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3">
-        <v>100</v>
-      </c>
-      <c r="K63" s="3">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>150</v>
-      </c>
-      <c r="N63">
-        <v>10</v>
-      </c>
-      <c r="O63" s="2">
-        <v>2</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R63" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S63" s="2">
-        <v>25</v>
-      </c>
-      <c r="T63" s="2">
-        <v>100</v>
-      </c>
-      <c r="U63" s="2">
-        <v>5</v>
-      </c>
-      <c r="V63" s="2">
-        <v>50</v>
-      </c>
-      <c r="W63" s="2">
-        <v>100</v>
-      </c>
-      <c r="X63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA63">
-        <f>(J63/100)*(A63*B63)</f>
-        <v>400</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="AF63">
-        <f>(A63*B63)*I63</f>
         <v>400</v>
       </c>
       <c r="AG63">
@@ -15768,11 +15768,11 @@
         <v>0</v>
       </c>
       <c r="BN63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP63">
@@ -15802,103 +15802,103 @@
         <v>20</v>
       </c>
       <c r="C64" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>10</v>
+      </c>
+      <c r="G64" s="4">
+        <v>100</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="I64" s="3">
+        <v>10</v>
+      </c>
+      <c r="J64" s="3">
+        <v>100</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>150</v>
+      </c>
+      <c r="N64">
+        <v>10</v>
+      </c>
+      <c r="O64" s="2">
+        <v>2</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S64" s="2">
+        <v>25</v>
+      </c>
+      <c r="T64" s="2">
+        <v>100</v>
+      </c>
+      <c r="U64" s="2">
+        <v>5</v>
+      </c>
+      <c r="V64" s="2">
+        <v>50</v>
+      </c>
+      <c r="W64" s="2">
+        <v>100</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA64">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D64" s="3" t="str">
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="AF64">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
-        <v>10</v>
-      </c>
-      <c r="G64" s="4">
-        <v>100</v>
-      </c>
-      <c r="H64" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I64" s="3">
-        <v>10</v>
-      </c>
-      <c r="J64" s="3">
-        <v>100</v>
-      </c>
-      <c r="K64" s="3">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="L64" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>150</v>
-      </c>
-      <c r="N64">
-        <v>10</v>
-      </c>
-      <c r="O64" s="2">
-        <v>2</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S64" s="2">
-        <v>25</v>
-      </c>
-      <c r="T64" s="2">
-        <v>100</v>
-      </c>
-      <c r="U64" s="2">
-        <v>5</v>
-      </c>
-      <c r="V64" s="2">
-        <v>50</v>
-      </c>
-      <c r="W64" s="2">
-        <v>100</v>
-      </c>
-      <c r="X64" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA64">
-        <f>(J64/100)*(A64*B64)</f>
-        <v>400</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <f t="shared" si="7"/>
-        <v>4000</v>
-      </c>
-      <c r="AF64">
-        <f>(A64*B64)*I64</f>
         <v>4000</v>
       </c>
       <c r="AG64">
@@ -16001,11 +16001,11 @@
         <v>0</v>
       </c>
       <c r="BN64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP64">
@@ -16035,103 +16035,103 @@
         <v>20</v>
       </c>
       <c r="C65" s="3">
+        <f t="shared" si="22"/>
+        <v>400</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>square</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>25</v>
+      </c>
+      <c r="G65" s="4">
+        <v>100</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="I65" s="3">
+        <v>25</v>
+      </c>
+      <c r="J65" s="3">
+        <v>100</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>150</v>
+      </c>
+      <c r="N65">
+        <v>10</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R65" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S65" s="2">
+        <v>25</v>
+      </c>
+      <c r="T65" s="2">
+        <v>100</v>
+      </c>
+      <c r="U65" s="2">
+        <v>5</v>
+      </c>
+      <c r="V65" s="2">
+        <v>50</v>
+      </c>
+      <c r="W65" s="2">
+        <v>100</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="27"/>
+        <v>400</v>
+      </c>
+      <c r="AA65">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
-      <c r="D65" s="3" t="str">
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="AF65">
         <f t="shared" si="19"/>
-        <v>square</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>25</v>
-      </c>
-      <c r="G65" s="4">
-        <v>100</v>
-      </c>
-      <c r="H65" s="4">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="I65" s="3">
-        <v>25</v>
-      </c>
-      <c r="J65" s="3">
-        <v>100</v>
-      </c>
-      <c r="K65" s="3">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="M65">
-        <v>150</v>
-      </c>
-      <c r="N65">
-        <v>10</v>
-      </c>
-      <c r="O65" s="2">
-        <v>2</v>
-      </c>
-      <c r="P65" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="S65" s="2">
-        <v>25</v>
-      </c>
-      <c r="T65" s="2">
-        <v>100</v>
-      </c>
-      <c r="U65" s="2">
-        <v>5</v>
-      </c>
-      <c r="V65" s="2">
-        <v>50</v>
-      </c>
-      <c r="W65" s="2">
-        <v>100</v>
-      </c>
-      <c r="X65" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="23"/>
-        <v>400</v>
-      </c>
-      <c r="AA65">
-        <f>(J65/100)*(A65*B65)</f>
-        <v>400</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-      <c r="AF65">
-        <f>(A65*B65)*I65</f>
         <v>10000</v>
       </c>
       <c r="AG65">
@@ -16234,11 +16234,11 @@
         <v>0</v>
       </c>
       <c r="BN65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP65">
@@ -16268,15 +16268,15 @@
         <v>20</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F66" s="4">
@@ -16286,7 +16286,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I66" s="3">
@@ -16296,11 +16296,11 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M66">
@@ -16343,11 +16343,11 @@
         <v>1</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA66">
-        <f>(J66/100)*(A66*B66)</f>
+        <f t="shared" ref="AA66:AA97" si="28">(J66/100)*(A66*B66)</f>
         <v>400</v>
       </c>
       <c r="AB66">
@@ -16360,11 +16360,11 @@
         <v>0</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
       <c r="AF66">
-        <f>(A66*B66)*I66</f>
+        <f t="shared" ref="AF66:AF97" si="29">(A66*B66)*I66</f>
         <v>20000</v>
       </c>
       <c r="AG66">
@@ -16467,11 +16467,11 @@
         <v>0</v>
       </c>
       <c r="BN66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP66">
@@ -16501,15 +16501,15 @@
         <v>20</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F67" s="4">
@@ -16519,7 +16519,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" ref="H67:H97" si="24">AE67/Z67</f>
+        <f t="shared" ref="H67:H97" si="30">AE67/Z67</f>
         <v>75</v>
       </c>
       <c r="I67" s="3">
@@ -16529,11 +16529,11 @@
         <v>100</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M67">
@@ -16576,11 +16576,11 @@
         <v>1</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA67">
-        <f>(J67/100)*(A67*B67)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB67">
@@ -16593,11 +16593,11 @@
         <v>0</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE97" si="25">(A67*B67)*F67</f>
+        <f t="shared" ref="AE67:AE97" si="31">(A67*B67)*F67</f>
         <v>30000</v>
       </c>
       <c r="AF67">
-        <f>(A67*B67)*I67</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AG67">
@@ -16700,11 +16700,11 @@
         <v>0</v>
       </c>
       <c r="BN67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO67">
-        <f t="shared" ref="BO67:BO97" si="26">BJ67/4</f>
+        <f t="shared" ref="BO67:BO97" si="32">BJ67/4</f>
         <v>1.25E-3</v>
       </c>
       <c r="BP67">
@@ -16734,15 +16734,15 @@
         <v>20</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F68" s="4">
@@ -16752,7 +16752,7 @@
         <v>100</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="I68" s="3">
@@ -16762,11 +16762,11 @@
         <v>100</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M68">
@@ -16809,11 +16809,11 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA68">
-        <f>(J68/100)*(A68*B68)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB68">
@@ -16826,11 +16826,11 @@
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>34000</v>
       </c>
       <c r="AF68">
-        <f>(A68*B68)*I68</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AG68">
@@ -16933,11 +16933,11 @@
         <v>0</v>
       </c>
       <c r="BN68">
-        <f t="shared" ref="BN68:BN97" si="27">BI68/4</f>
+        <f t="shared" ref="BN68:BN97" si="33">BI68/4</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP68">
@@ -16967,15 +16967,15 @@
         <v>20</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F69" s="4">
@@ -16985,7 +16985,7 @@
         <v>100</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I69" s="3">
@@ -16995,11 +16995,11 @@
         <v>100</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M69">
@@ -17042,11 +17042,11 @@
         <v>1</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA69">
-        <f>(J69/100)*(A69*B69)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB69">
@@ -17059,11 +17059,11 @@
         <v>0</v>
       </c>
       <c r="AE69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40000</v>
       </c>
       <c r="AF69">
-        <f>(A69*B69)*I69</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AG69">
@@ -17166,11 +17166,11 @@
         <v>0</v>
       </c>
       <c r="BN69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP69">
@@ -17200,15 +17200,15 @@
         <v>20</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F70" s="4">
@@ -17218,7 +17218,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I70" s="3">
@@ -17228,11 +17228,11 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M70">
@@ -17275,11 +17275,11 @@
         <v>1</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA70">
-        <f>(J70/100)*(A70*B70)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB70">
@@ -17292,11 +17292,11 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="AF70">
-        <f>(A70*B70)*I70</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AG70">
@@ -17399,11 +17399,11 @@
         <v>0</v>
       </c>
       <c r="BN70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP70">
@@ -17433,15 +17433,15 @@
         <v>20</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F71" s="4">
@@ -17451,7 +17451,7 @@
         <v>100</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I71" s="3">
@@ -17461,11 +17461,11 @@
         <v>100</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M71">
@@ -17508,11 +17508,11 @@
         <v>1</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA71">
-        <f>(J71/100)*(A71*B71)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB71">
@@ -17525,11 +17525,11 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4000</v>
       </c>
       <c r="AF71">
-        <f>(A71*B71)*I71</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AG71">
@@ -17632,11 +17632,11 @@
         <v>0</v>
       </c>
       <c r="BN71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP71">
@@ -17666,15 +17666,15 @@
         <v>20</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F72" s="4">
@@ -17684,7 +17684,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="I72" s="3">
@@ -17694,11 +17694,11 @@
         <v>100</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M72">
@@ -17741,11 +17741,11 @@
         <v>1</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA72">
-        <f>(J72/100)*(A72*B72)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB72">
@@ -17758,11 +17758,11 @@
         <v>0</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>10000</v>
       </c>
       <c r="AF72">
-        <f>(A72*B72)*I72</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AG72">
@@ -17865,11 +17865,11 @@
         <v>0</v>
       </c>
       <c r="BN72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP72">
@@ -17899,15 +17899,15 @@
         <v>20</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F73" s="4">
@@ -17917,7 +17917,7 @@
         <v>100</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I73" s="3">
@@ -17927,11 +17927,11 @@
         <v>100</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M73">
@@ -17974,11 +17974,11 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA73">
-        <f>(J73/100)*(A73*B73)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB73">
@@ -17991,11 +17991,11 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>20000</v>
       </c>
       <c r="AF73">
-        <f>(A73*B73)*I73</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AG73">
@@ -18098,11 +18098,11 @@
         <v>0</v>
       </c>
       <c r="BN73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP73">
@@ -18132,15 +18132,15 @@
         <v>20</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F74" s="4">
@@ -18150,7 +18150,7 @@
         <v>100</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="I74" s="3">
@@ -18160,11 +18160,11 @@
         <v>100</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M74">
@@ -18207,11 +18207,11 @@
         <v>1</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA74">
-        <f>(J74/100)*(A74*B74)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB74">
@@ -18224,11 +18224,11 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>30000</v>
       </c>
       <c r="AF74">
-        <f>(A74*B74)*I74</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AG74">
@@ -18331,11 +18331,11 @@
         <v>0</v>
       </c>
       <c r="BN74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP74">
@@ -18365,15 +18365,15 @@
         <v>20</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F75" s="4">
@@ -18383,7 +18383,7 @@
         <v>100</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="I75" s="3">
@@ -18393,11 +18393,11 @@
         <v>100</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M75">
@@ -18440,11 +18440,11 @@
         <v>1</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA75">
-        <f>(J75/100)*(A75*B75)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB75">
@@ -18457,11 +18457,11 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>34000</v>
       </c>
       <c r="AF75">
-        <f>(A75*B75)*I75</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AG75">
@@ -18564,11 +18564,11 @@
         <v>0</v>
       </c>
       <c r="BN75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP75">
@@ -18598,15 +18598,15 @@
         <v>20</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F76" s="4">
@@ -18616,7 +18616,7 @@
         <v>100</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I76" s="3">
@@ -18626,11 +18626,11 @@
         <v>100</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M76">
@@ -18673,11 +18673,11 @@
         <v>1</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA76">
-        <f>(J76/100)*(A76*B76)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB76">
@@ -18690,11 +18690,11 @@
         <v>0</v>
       </c>
       <c r="AE76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40000</v>
       </c>
       <c r="AF76">
-        <f>(A76*B76)*I76</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AG76">
@@ -18797,11 +18797,11 @@
         <v>0</v>
       </c>
       <c r="BN76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP76">
@@ -18831,15 +18831,15 @@
         <v>20</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F77" s="4">
@@ -18849,7 +18849,7 @@
         <v>100</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I77" s="3">
@@ -18859,11 +18859,11 @@
         <v>100</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M77">
@@ -18906,11 +18906,11 @@
         <v>1</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA77">
-        <f>(J77/100)*(A77*B77)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB77">
@@ -18923,11 +18923,11 @@
         <v>0</v>
       </c>
       <c r="AE77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="AF77">
-        <f>(A77*B77)*I77</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AG77">
@@ -19030,11 +19030,11 @@
         <v>0</v>
       </c>
       <c r="BN77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP77">
@@ -19064,15 +19064,15 @@
         <v>20</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F78" s="4">
@@ -19082,7 +19082,7 @@
         <v>100</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I78" s="3">
@@ -19092,11 +19092,11 @@
         <v>100</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M78">
@@ -19139,11 +19139,11 @@
         <v>1</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA78">
-        <f>(J78/100)*(A78*B78)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB78">
@@ -19156,11 +19156,11 @@
         <v>0</v>
       </c>
       <c r="AE78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4000</v>
       </c>
       <c r="AF78">
-        <f>(A78*B78)*I78</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AG78">
@@ -19263,11 +19263,11 @@
         <v>0</v>
       </c>
       <c r="BN78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP78">
@@ -19297,15 +19297,15 @@
         <v>20</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F79" s="4">
@@ -19315,7 +19315,7 @@
         <v>100</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="I79" s="3">
@@ -19325,11 +19325,11 @@
         <v>100</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M79">
@@ -19372,11 +19372,11 @@
         <v>1</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA79">
-        <f>(J79/100)*(A79*B79)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB79">
@@ -19389,11 +19389,11 @@
         <v>0</v>
       </c>
       <c r="AE79">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>10000</v>
       </c>
       <c r="AF79">
-        <f>(A79*B79)*I79</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AG79">
@@ -19496,11 +19496,11 @@
         <v>0</v>
       </c>
       <c r="BN79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP79">
@@ -19530,15 +19530,15 @@
         <v>20</v>
       </c>
       <c r="C80" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F80" s="4">
@@ -19548,7 +19548,7 @@
         <v>100</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I80" s="3">
@@ -19558,11 +19558,11 @@
         <v>100</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M80">
@@ -19605,11 +19605,11 @@
         <v>1</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA80">
-        <f>(J80/100)*(A80*B80)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB80">
@@ -19622,11 +19622,11 @@
         <v>0</v>
       </c>
       <c r="AE80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>20000</v>
       </c>
       <c r="AF80">
-        <f>(A80*B80)*I80</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AG80">
@@ -19729,11 +19729,11 @@
         <v>0</v>
       </c>
       <c r="BN80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP80">
@@ -19763,15 +19763,15 @@
         <v>20</v>
       </c>
       <c r="C81" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F81" s="4">
@@ -19781,7 +19781,7 @@
         <v>100</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="I81" s="3">
@@ -19791,11 +19791,11 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M81">
@@ -19838,11 +19838,11 @@
         <v>1</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA81">
-        <f>(J81/100)*(A81*B81)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB81">
@@ -19855,11 +19855,11 @@
         <v>0</v>
       </c>
       <c r="AE81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>30000</v>
       </c>
       <c r="AF81">
-        <f>(A81*B81)*I81</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AG81">
@@ -19962,11 +19962,11 @@
         <v>0</v>
       </c>
       <c r="BN81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP81">
@@ -19996,15 +19996,15 @@
         <v>20</v>
       </c>
       <c r="C82" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F82" s="4">
@@ -20014,7 +20014,7 @@
         <v>100</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="I82" s="3">
@@ -20024,11 +20024,11 @@
         <v>100</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M82">
@@ -20071,11 +20071,11 @@
         <v>1</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA82">
-        <f>(J82/100)*(A82*B82)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB82">
@@ -20088,11 +20088,11 @@
         <v>0</v>
       </c>
       <c r="AE82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>34000</v>
       </c>
       <c r="AF82">
-        <f>(A82*B82)*I82</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AG82">
@@ -20195,11 +20195,11 @@
         <v>0</v>
       </c>
       <c r="BN82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP82">
@@ -20229,15 +20229,15 @@
         <v>20</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F83" s="4">
@@ -20247,7 +20247,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I83" s="3">
@@ -20257,11 +20257,11 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M83">
@@ -20304,11 +20304,11 @@
         <v>1</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA83">
-        <f>(J83/100)*(A83*B83)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB83">
@@ -20321,11 +20321,11 @@
         <v>0</v>
       </c>
       <c r="AE83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40000</v>
       </c>
       <c r="AF83">
-        <f>(A83*B83)*I83</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AG83">
@@ -20428,11 +20428,11 @@
         <v>0</v>
       </c>
       <c r="BN83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP83">
@@ -20462,15 +20462,15 @@
         <v>20</v>
       </c>
       <c r="C84" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F84" s="4">
@@ -20480,7 +20480,7 @@
         <v>100</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I84" s="3">
@@ -20490,11 +20490,11 @@
         <v>100</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M84">
@@ -20538,11 +20538,11 @@
         <v>1</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA84">
-        <f>(J84/100)*(A84*B84)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB84">
@@ -20555,11 +20555,11 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="AF84">
-        <f>(A84*B84)*I84</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AG84">
@@ -20662,11 +20662,11 @@
         <v>0</v>
       </c>
       <c r="BN84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP84">
@@ -20696,15 +20696,15 @@
         <v>20</v>
       </c>
       <c r="C85" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F85" s="4">
@@ -20714,7 +20714,7 @@
         <v>100</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I85" s="3">
@@ -20724,11 +20724,11 @@
         <v>100</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M85">
@@ -20741,7 +20741,7 @@
         <v>7.5</v>
       </c>
       <c r="P85" s="2">
-        <f t="shared" ref="P85:P90" si="28">7.5/4</f>
+        <f t="shared" ref="P85:P90" si="34">7.5/4</f>
         <v>1.875</v>
       </c>
       <c r="Q85" s="2">
@@ -20772,11 +20772,11 @@
         <v>1</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA85">
-        <f>(J85/100)*(A85*B85)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB85">
@@ -20789,11 +20789,11 @@
         <v>0</v>
       </c>
       <c r="AE85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4000</v>
       </c>
       <c r="AF85">
-        <f>(A85*B85)*I85</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AG85">
@@ -20896,11 +20896,11 @@
         <v>0</v>
       </c>
       <c r="BN85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP85">
@@ -20930,15 +20930,15 @@
         <v>20</v>
       </c>
       <c r="C86" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F86" s="4">
@@ -20948,7 +20948,7 @@
         <v>100</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="I86" s="3">
@@ -20958,11 +20958,11 @@
         <v>100</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M86">
@@ -20975,7 +20975,7 @@
         <v>7.5</v>
       </c>
       <c r="P86" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q86" s="2">
@@ -21006,11 +21006,11 @@
         <v>1</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA86">
-        <f>(J86/100)*(A86*B86)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB86">
@@ -21023,11 +21023,11 @@
         <v>0</v>
       </c>
       <c r="AE86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>10000</v>
       </c>
       <c r="AF86">
-        <f>(A86*B86)*I86</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AG86">
@@ -21130,11 +21130,11 @@
         <v>0</v>
       </c>
       <c r="BN86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP86">
@@ -21164,15 +21164,15 @@
         <v>20</v>
       </c>
       <c r="C87" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F87" s="4">
@@ -21182,7 +21182,7 @@
         <v>100</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I87" s="3">
@@ -21192,11 +21192,11 @@
         <v>100</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M87">
@@ -21209,7 +21209,7 @@
         <v>7.5</v>
       </c>
       <c r="P87" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q87" s="2">
@@ -21240,11 +21240,11 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA87">
-        <f>(J87/100)*(A87*B87)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB87">
@@ -21257,11 +21257,11 @@
         <v>0</v>
       </c>
       <c r="AE87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>20000</v>
       </c>
       <c r="AF87">
-        <f>(A87*B87)*I87</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AG87">
@@ -21364,11 +21364,11 @@
         <v>0</v>
       </c>
       <c r="BN87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP87">
@@ -21398,15 +21398,15 @@
         <v>20</v>
       </c>
       <c r="C88" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F88" s="4">
@@ -21416,7 +21416,7 @@
         <v>100</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="I88" s="3">
@@ -21426,11 +21426,11 @@
         <v>100</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M88">
@@ -21443,7 +21443,7 @@
         <v>7.5</v>
       </c>
       <c r="P88" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q88" s="2">
@@ -21474,11 +21474,11 @@
         <v>1</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA88">
-        <f>(J88/100)*(A88*B88)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB88">
@@ -21491,11 +21491,11 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>30000</v>
       </c>
       <c r="AF88">
-        <f>(A88*B88)*I88</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AG88">
@@ -21598,11 +21598,11 @@
         <v>0</v>
       </c>
       <c r="BN88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP88">
@@ -21632,15 +21632,15 @@
         <v>20</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F89" s="4">
@@ -21650,7 +21650,7 @@
         <v>100</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="I89" s="3">
@@ -21660,11 +21660,11 @@
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M89">
@@ -21677,7 +21677,7 @@
         <v>7.5</v>
       </c>
       <c r="P89" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q89" s="2">
@@ -21708,11 +21708,11 @@
         <v>1</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA89">
-        <f>(J89/100)*(A89*B89)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB89">
@@ -21725,11 +21725,11 @@
         <v>0</v>
       </c>
       <c r="AE89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>34000</v>
       </c>
       <c r="AF89">
-        <f>(A89*B89)*I89</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AG89">
@@ -21832,11 +21832,11 @@
         <v>0</v>
       </c>
       <c r="BN89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP89">
@@ -21866,15 +21866,15 @@
         <v>20</v>
       </c>
       <c r="C90" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F90" s="4">
@@ -21884,7 +21884,7 @@
         <v>100</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I90" s="3">
@@ -21894,11 +21894,11 @@
         <v>100</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M90">
@@ -21911,7 +21911,7 @@
         <v>7.5</v>
       </c>
       <c r="P90" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.875</v>
       </c>
       <c r="Q90" s="2">
@@ -21942,11 +21942,11 @@
         <v>1</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA90">
-        <f>(J90/100)*(A90*B90)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB90">
@@ -21959,11 +21959,11 @@
         <v>0</v>
       </c>
       <c r="AE90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40000</v>
       </c>
       <c r="AF90">
-        <f>(A90*B90)*I90</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AG90">
@@ -22066,11 +22066,11 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP90">
@@ -22100,15 +22100,15 @@
         <v>20</v>
       </c>
       <c r="C91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F91" s="4">
@@ -22118,7 +22118,7 @@
         <v>100</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I91" s="3">
@@ -22128,11 +22128,11 @@
         <v>100</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M91">
@@ -22175,11 +22175,11 @@
         <v>1</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA91">
-        <f>(J91/100)*(A91*B91)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB91">
@@ -22192,11 +22192,11 @@
         <v>0</v>
       </c>
       <c r="AE91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>400</v>
       </c>
       <c r="AF91">
-        <f>(A91*B91)*I91</f>
+        <f t="shared" si="29"/>
         <v>400</v>
       </c>
       <c r="AG91">
@@ -22299,11 +22299,11 @@
         <v>0</v>
       </c>
       <c r="BN91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP91">
@@ -22333,15 +22333,15 @@
         <v>20</v>
       </c>
       <c r="C92" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F92" s="4">
@@ -22351,7 +22351,7 @@
         <v>100</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="I92" s="3">
@@ -22361,11 +22361,11 @@
         <v>100</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M92">
@@ -22408,11 +22408,11 @@
         <v>1</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA92">
-        <f>(J92/100)*(A92*B92)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB92">
@@ -22425,11 +22425,11 @@
         <v>0</v>
       </c>
       <c r="AE92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>4000</v>
       </c>
       <c r="AF92">
-        <f>(A92*B92)*I92</f>
+        <f t="shared" si="29"/>
         <v>4000</v>
       </c>
       <c r="AG92">
@@ -22532,11 +22532,11 @@
         <v>0</v>
       </c>
       <c r="BN92">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP92">
@@ -22566,15 +22566,15 @@
         <v>20</v>
       </c>
       <c r="C93" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F93" s="4">
@@ -22584,7 +22584,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="I93" s="3">
@@ -22594,11 +22594,11 @@
         <v>100</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M93">
@@ -22641,11 +22641,11 @@
         <v>1</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA93">
-        <f>(J93/100)*(A93*B93)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB93">
@@ -22658,11 +22658,11 @@
         <v>0</v>
       </c>
       <c r="AE93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>10000</v>
       </c>
       <c r="AF93">
-        <f>(A93*B93)*I93</f>
+        <f t="shared" si="29"/>
         <v>10000</v>
       </c>
       <c r="AG93">
@@ -22765,11 +22765,11 @@
         <v>0</v>
       </c>
       <c r="BN93">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP93">
@@ -22799,15 +22799,15 @@
         <v>20</v>
       </c>
       <c r="C94" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F94" s="4">
@@ -22817,7 +22817,7 @@
         <v>100</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="I94" s="3">
@@ -22827,11 +22827,11 @@
         <v>100</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M94">
@@ -22874,11 +22874,11 @@
         <v>1</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA94">
-        <f>(J94/100)*(A94*B94)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB94">
@@ -22891,11 +22891,11 @@
         <v>0</v>
       </c>
       <c r="AE94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>20000</v>
       </c>
       <c r="AF94">
-        <f>(A94*B94)*I94</f>
+        <f t="shared" si="29"/>
         <v>20000</v>
       </c>
       <c r="AG94">
@@ -22998,11 +22998,11 @@
         <v>0</v>
       </c>
       <c r="BN94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP94">
@@ -23032,15 +23032,15 @@
         <v>20</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F95" s="4">
@@ -23050,7 +23050,7 @@
         <v>100</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>75</v>
       </c>
       <c r="I95" s="3">
@@ -23060,11 +23060,11 @@
         <v>100</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M95">
@@ -23107,11 +23107,11 @@
         <v>1</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA95">
-        <f>(J95/100)*(A95*B95)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB95">
@@ -23124,11 +23124,11 @@
         <v>0</v>
       </c>
       <c r="AE95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>30000</v>
       </c>
       <c r="AF95">
-        <f>(A95*B95)*I95</f>
+        <f t="shared" si="29"/>
         <v>30000</v>
       </c>
       <c r="AG95">
@@ -23231,11 +23231,11 @@
         <v>0</v>
       </c>
       <c r="BN95">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP95">
@@ -23265,15 +23265,15 @@
         <v>20</v>
       </c>
       <c r="C96" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F96" s="4">
@@ -23283,7 +23283,7 @@
         <v>100</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="I96" s="3">
@@ -23293,11 +23293,11 @@
         <v>100</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M96">
@@ -23340,11 +23340,11 @@
         <v>1</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA96">
-        <f>(J96/100)*(A96*B96)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB96">
@@ -23357,11 +23357,11 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>34000</v>
       </c>
       <c r="AF96">
-        <f>(A96*B96)*I96</f>
+        <f t="shared" si="29"/>
         <v>34000</v>
       </c>
       <c r="AG96">
@@ -23464,11 +23464,11 @@
         <v>0</v>
       </c>
       <c r="BN96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP96">
@@ -23498,15 +23498,15 @@
         <v>20</v>
       </c>
       <c r="C97" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>square</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F97" s="4">
@@ -23516,7 +23516,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="I97" s="3">
@@ -23526,11 +23526,11 @@
         <v>100</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="M97">
@@ -23573,11 +23573,11 @@
         <v>1</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>400</v>
       </c>
       <c r="AA97">
-        <f>(J97/100)*(A97*B97)</f>
+        <f t="shared" si="28"/>
         <v>400</v>
       </c>
       <c r="AB97">
@@ -23590,11 +23590,11 @@
         <v>0</v>
       </c>
       <c r="AE97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>40000</v>
       </c>
       <c r="AF97">
-        <f>(A97*B97)*I97</f>
+        <f t="shared" si="29"/>
         <v>40000</v>
       </c>
       <c r="AG97">
@@ -23697,11 +23697,11 @@
         <v>0</v>
       </c>
       <c r="BN97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="BO97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1.25E-3</v>
       </c>
       <c r="BP97">
